--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andre Barros-EAP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Andre Barros-EAP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Euclides-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Euclides-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem-3A, Aderci-Fresagem-3A, Aderci-Fresagem-3A, Aderci-Fresagem-3A]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
         </is>
       </c>
     </row>
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria-3A, Valmir-Calderaria-3A, Valmir-Calderaria-3A, Valmir-Calderaria-3A]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comandos Eletricos-3A, Joel L.-Tec. Fundição-3A, Leonardo-Retífica-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, Wellington-Trat. Termicos-3A, Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A, Leonardo R.-Retífica-3A]</t>
+          <t>[Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Comandos Eletricos-3A]</t>
+          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3A, Aderci-Fresagem-3A, Aderci-Fresagem-3A, Aderci-Fresagem-3A]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A, Ludoff-Cont. Lóg. Prog. CLP-3A]</t>
+          <t>[Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>[Ludoff-Cont.Lóg.Prog CLP-3A, -, Joel L.-Tec. Fundição-3A, Ludoff-Comandos Eletricos-3A]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A, Ivan-Tec. Soldagem-3A]</t>
+          <t>[Ivan-Tec. Soldagem-3A, Nilton-Metrologia 2-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A, Paulo Rob.-M. A. Comp. CAD / CAM-3A]</t>
+          <t>[Aselmo-M. Motor Endot.-3A, Valmir-Calderaria-3A, Paulo Rob.-Usin. CNC-3A, Aderci-Fresagem-3A]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A, Aselmo-M. Motor Endot.-3A]</t>
+          <t>[Joel L.-Tec. Fundição-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Cont.Lóg.Prog CLP-3A, Leonardo-Retífica-3A]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A, Paulo Rob.-Usin. CNC-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria-3A, Valmir-Calderaria-3A, Valmir-Calderaria-3A, Valmir-Calderaria-3A]</t>
+          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A, Humberto-Coman. Pneumáticos-3A]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A, Wellington-Trat. Termicos-3A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A, Luciana-T. NãoMetalicos-3A]</t>
+          <t>[Nilton-Metrologia 2-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Cont.Lóg.Prog CLP-3A, Leonardo-Retífica-3A]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A, Tiago Freitas-M. S. R. AR Cond.-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A, Joel L.-Tec. Fundição-3A]</t>
+          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A, Leonardo R.-Mec. Manut. Equip. Ind-3A]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A, Nilton-Metrologia 2-3A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A, Aline Bruna-T. NãoMetalicos-3A]</t>
+          <t>[-, Joel L.-Tec. Fundição-3A, -, Leonardo-Retífica-3A]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Leonardo-Mec. Manut.Equip. ind.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Ludoff-Comandos Eletricos-3A, Joel L.-Tec. Fundição-3A, Leonardo-Retífica-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, Wellington-Trat. Termicos-3A, Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A]</t>
+          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
+          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
+          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Leonardo-Mec. Manut.Equip. ind.-3A, Aselmo-M. Motor Endot.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
+          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP-3A, -, Joel L.-Tec. Fundição-3A, Ludoff-Comandos Eletricos-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Nilton-Metrologia 2-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
+          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot.-3A, Valmir-Calderaria-3A, Paulo Rob.-Usin. CNC-3A, Aderci-Fresagem-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Cont.Lóg.Prog CLP-3A, Leonardo-Retífica-3A]</t>
+          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Nilton-Metrologia 2-3A, Ludoff-Comandos Eletricos-3A, Ludoff-Cont.Lóg.Prog CLP-3A, Leonardo-Retífica-3A]</t>
+          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Paulo Rob.-Usin. CNC-3A, Humberto-C.pneumática-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Valmir-Calderaria-3A, Nilton-Metrologia 2-3A, Aderci-Fresagem-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-, Joel L.-Tec. Fundição-3A, -, Leonardo-Retífica-3A]</t>
+          <t>Rogério-Elem. Máquinas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, Leonardo-Mec. Manut.Equip. ind.-3A, Wellington-Trat. Termicos-3A, Gisele-Ens. Dest. Não Desti.-3A]</t>
+          <t>[Joel L.-Tec. Fundição-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-Usin. CNC-3A]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A, Gisele-Ens. Dest. Não Desti.-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3A, -, -, -]</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-C.pneumática, Paulo Rob.-Usin. CNC, Gisele-Ens. Dest. Não Desti., Ivan-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
+          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
+          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Joel L.-Tec. Fundição-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
+          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Humberto-C.pneumática, Ivan-Tec. Soldagem, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Humberto-C.pneumática-3A, Ludoff-Comandos Eletricos-3A, Valmir-Calderaria-3A, Ludoff-Cont.Lóg.Prog CLP-3A]</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond.-3A, Gisele-Ens. Dest. Não Desti.-3A, Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A]</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica-3A, Aderci-Fresagem-3A, Nilton-Metrologia 2-3A, Leonardo-Mec. Manut.Equip. ind.-3A]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Humberto-C.pneumática, Ivan-Tec. Soldagem, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3A, Paulo Rob.-M.A.Comp.CAD / CAM-3A, Wellington-Trat. Termicos-3A, Paulo Rob.-Usin. CNC-3A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC, Humberto-C.pneumática, Ivan-Tec. Soldagem, Gisele-Ens. Dest. Não Desti.]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem-3A, Aselmo-M. Motor Endot.-3A, Gisele-Ens. Dest. Não Desti.-3A, Tiago Freitas-M.S.R. ar Cond.-3A]</t>
+          <t>[Aderci-Fresagem, Aselmo-M. Motor Endot., Wellington-Trat. Termicos, Nilton-Metrologia 2]</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[Humberto-C.pneumática, Paulo Rob.-Usin. CNC, Gisele-Ens. Dest. Não Desti., Ivan-Tec. Soldagem]</t>
+          <t>[Ludoff-Cont.Lóg.Prog CLP, Joel L.-Tec. Fundição, Ludoff-Comandos Eletricos, Tiago Freitas-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
+          <t>[Leonardo-Mec. Manut.Equip. ind., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Retífica]</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Retífica, Paulo Rob.-Usin. CNC, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
+          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
+          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comandos Eletricos, Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
+          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Nilton-Metrologia 2, Aderci-Fresagem, Wellington-Trat. Termicos]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
+          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comandos Eletricos, Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
+          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Humberto-C.pneumática, Ivan-Tec. Soldagem, Paulo Rob.-Usin. CNC]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Valmir-Calderaria]</t>
+          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>[-, Joel L.-Tec. Fundição, -, -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Comandos Eletricos]</t>
+          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Humberto-C.pneumática, Ivan-Tec. Soldagem, Paulo Rob.-Usin. CNC]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Humberto-C.pneumática, Ivan-Tec. Soldagem, Gisele-Ens. Dest. Não Desti.]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Ludoff-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Aselmo-M. Motor Endot., Wellington-Trat. Termicos, Nilton-Metrologia 2]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comandos Eletricos, Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Nilton-Metrologia 2]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Joel L.-Tec. Fundição, -]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Ivan-Tec. Soldagem, Wellington-Trat. Termicos]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP, Joel L.-Tec. Fundição, Ludoff-Comandos Eletricos, Tiago Freitas-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[Leonardo-Mec. Manut.Equip. ind., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Humberto-C.pneumática, Leonardo-Mec. Manut.Equip. ind.]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Ludoff-Comandos Eletricos, Nilton-Metrologia 2]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Retífica, Paulo Rob.-Usin. CNC, Leonardo-Mec. Manut.Equip. ind.]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Humberto-C.pneumática, Leonardo-Retífica]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Ludoff-Comandos Eletricos, Nilton-Metrologia 2]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., -]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[Ludoff-Comandos Eletricos, Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Leonardo-Mec. Manut.Equip. ind.]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., -]</t>
+          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Termicos, -, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Ludoff-Comandos Eletricos, Joel L.-Tec. Fundição, Ludoff-Cont.Lóg.Prog CLP, -]</t>
+          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Leonardo-Mec. Manut.Equip. ind., Humberto-C.pneumática]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Aselmo-M. Motor Endot.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-, -, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Termicos, -, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, Joel L.-Tec. Fundição, -, -]</t>
+          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Leonardo-Retífica, Humberto-C.pneumática]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Nilton-Metrologia 2, Humberto-C.pneumática, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Nilton-Metrologia 2, Ludoff-Comandos Eletricos, Ludoff-Cont.Lóg.Prog CLP]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Leonardo-Retífica, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Ludoff-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Ludoff-Comandos Eletricos, Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Nilton-Metrologia 2]</t>
+          <t>[Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-, -, Joel L.-Tec. Fundição, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Leonardo-Mec. Manut.Equip. ind., Leonardo-Retífica, Ivan-Tec. Soldagem, Wellington-Trat. Termicos]</t>
+          <t>[Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Paulo Rob.-M.A.Comp.CAD / CAM, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>[Wellington-Trat. Termicos, Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Humberto-C.pneumática, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>[Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Ludoff-Comandos Eletricos, Nilton-Metrologia 2]</t>
+          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Rogério-Elem. Máqui</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Humberto-C.pneumática, Leonardo-Retífica]</t>
+          <t>[Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP, Aderci-Fresagem, Ludoff-Comandos Eletricos, Nilton-Metrologia 2]</t>
+          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Rogério-Elem. Máqui</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Termicos, -, Joel L.-Tec. Fundição]</t>
+          <t>[Leonardo-Retífica, Ivan-Tec. Soldagem, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Leonardo-Mec. Manut.Equip. ind., Humberto-C.pneumática]</t>
+          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Tiago Freitas-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Termicos, -, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Tec. Soldagem, -, -, Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Valmir-Calderaria, Leonardo-Retífica, Humberto-C.pneumática]</t>
+          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Ivan-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Nilton-Metrologia 2, Ludoff-Comandos Eletricos, Ludoff-Cont.Lóg.Prog CLP]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Leonardo-Retífica, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-, -, -, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos, Ivan-Tec. Soldagem, Leonardo-Retífica, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>[Aselmo-M. Motor Endot., Paulo Rob.-Usin. CNC, Humberto-C.pneumática, Gisele-Ens. Dest. Não Desti.]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP, Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Paulo Rob.-M.A.Comp.CAD / CAM, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos, Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Ludoff-Cont.Lóg.Prog CLP, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Ivan-Tec. Soldagem, Ludoff-Comandos Eletricos, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Wellington-Trat. Termicos, Humberto-C.pneumática, Aselmo-M. Motor Endot., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, -, Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Tiago Freitas-M.S.R. ar Cond., Joel L.-Tec. Fundição, Nilton-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, -, -, Ivan-Tec. Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Gisele-Ens. Dest. Não Desti., Leonardo-Retífica, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Paulo Rob.-Usin. CNC, Humberto-C.pneumática, Gisele-Ens. Dest. Não Desti.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Tiago Freitas-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica, Humberto-C.pneumática, Ludoff-Comandos Eletricos, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Tiago Freitas-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica, Humberto-C.pneumática, Ludoff-Comandos Eletricos, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Tiago Freitas-M.S.R. ar Cond., -, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Tiago Freitas-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Humberto-C.pneumática, Ludoff-Cont.Lóg.Prog CLP, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, Nilton-Metrologia 2, -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Ludoff-Comandos Eletricos, Leonardo-Retífica, Wellington-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem. Máqui</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, -, -]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Ludoff-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Leonardo-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Leonardo-Mec. Manut.Equip. ind., Humberto-C.pneumática, Ludoff-Cont.Lóg.Prog CLP]</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, -, -]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Ludoff-Comandos Eletricos, Aselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Leonardo-Mec. Manut.Equip. ind., Aderci-Fresagem, Ludoff-Cont.Lóg.Prog CLP]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,12 +729,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Camam. Hidráulicos, Leonardo R.-Mec. Manut. Equip. Ind., Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Cleidson-Metrologia 2, -, -]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Tiago Freitas-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Humberto-C.pneumática, Ludoff-Comandos Eletricos, Wellington-Trat. Termicos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Camam. Hidráulicos, Leonardo R.-Retificação, Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Cleidson-Metrologia 2, Aderci-Fresagem, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-Usin. CNC, Tiago Freitas-M.S.R. ar Cond.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Humberto-C.pneumática, Ludoff-Comandos Eletricos, Wellington-Trat. Termicos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação, Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Tiago Freitas-M.S.R. ar Cond., -, Joel L.-Tec. Fundição]</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Aderci-M. A. Comp; Cad / CAM, Anselmo-M. Motor Endot., Ludoff-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Tiago Freitas-M.S.R. ar Cond.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Humberto-C.pneumática, Ludoff-Cont.Lóg.Prog CLP, Wellington-Trat. Termicos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>[Ludoff-Cont. Lóg. Prog. CLP, Aderci-M. A. Comp; Cad / CAM, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, Nilton-Metrologia 2, -]</t>
+          <t>[Anselmo-M. Motor Endot., Aderci-M. A. Comp; Cad / CAM, Leonardo R.-Retificação, Ludoff-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
+          <t>Rogério-Elem</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Ludoff-Comandos Eletricos, Leonardo-Retífica, Wellington-Trat. Termicos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rogério-Elem. Máqui</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Aderci-M. A. Comp; Cad / CAM, Ivan-Tec. Soldagem, Ludoff-Camam. Hidráulicos]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, -, -]</t>
+          <t>[Aderci-Fresagem, Anselmo-M. Motor Endot., Leonardo R.-Retificação, Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, Nilton-Metrologia 2, -, Valmir-Calderaria]</t>
+          <t>Rogério-Elem</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Ludoff-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Leonardo-Mec. Manut.Equip. ind.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Leonardo-Mec. Manut.Equip. ind., Humberto-C.pneumática, Ludoff-Cont.Lóg.Prog CLP]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Wellington-Trat. Térmicos, Ivan-Tec. Soldagem, Ludoff-Camam. Hidráulicos]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, -, -, -]</t>
+          <t>[-, -, -, Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[-, -, -, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Ludoff-Comandos Eletricos, Aselmo-M. Motor Endot.]</t>
+          <t>[Aderci-Fresagem, -, Ivan-Tec. Soldagem, -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Leonardo-Mec. Manut.Equip. ind., Aderci-Fresagem, Ludoff-Cont.Lóg.Prog CLP]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Ludoff-Camam. Hidráulicos, Leonardo R.-Mec. Manut. Equip. Ind., Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-, Cleidson-Metrologia 2, -, -]</t>
+          <t>[-, And. Edson-Usin. CNC, -, -]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anselmo-M. Motor Endot., -, Ivan-Tec. Soldagem, And. Edson-Usin. CNC]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Ludoff-Camam. Hidráulicos, Leonardo R.-Retificação, Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Cleidson-Metrologia 2, Aderci-Fresagem, Anselmo-M. Motor Endot.]</t>
+          <t>[-, And. Edson-Usin. CNC, Anselmo-M. Motor Endot., -]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anselmo-M. Motor Endot., Gisele-Ens. Dest. não Dest., Ivan-Tec. Soldagem, And. Edson-Usin. CNC]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
+          <t>[Ivan-Tec. Soldagem, Leonardo R.-Mec. Manut. Equip. Ind., Ludoff-Cont. Lóg. Prog. CLP, Aderci-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação, Valmir-Calderaria, Wellington-Trat. Térmicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Aderci-M. A. Comp; Cad / CAM, Anselmo-M. Motor Endot., Ludoff-Cont. Lóg. Prog. CLP]</t>
+          <t>[Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação, Aderci-M. A. Comp; Cad / CAM, Humberto-Comam. Pneumáticos]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
+          <t>[Aderci-Fresagem, Leonardo R.-Mec. Manut. Equip. Ind., Ludoff-Cont. Lóg. Prog. CLP, -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont. Lóg. Prog. CLP, Aderci-M. A. Comp; Cad / CAM, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Anselmo-M. Motor Endot., Aderci-M. A. Comp; Cad / CAM, Leonardo R.-Retificação, Ludoff-Cont. Lóg. Prog. CLP]</t>
+          <t>[Cleidson-Metrologia 2, Leonardo R.-Retificação, Aderci-M. A. Comp; Cad / CAM, Humberto-Comam. Pneumáticos]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>[Valmir-Calderaria, Ludoff-Camam. Hidráulicos, Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[Cleidson-Metrologia 2, Aderci-M. A. Comp; Cad / CAM, Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Rogério-Elem</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Aderci-M. A. Comp; Cad / CAM, Ivan-Tec. Soldagem, Ludoff-Camam. Hidráulicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Anselmo-M. Motor Endot., Leonardo R.-Retificação, Cleidson-Metrologia 2]</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Humberto-Comam. Pneumáticos, Ivan-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[Cleidson-Metrologia 2, Ludoff-Camam. Hidráulicos, Aderci-Fresagem, Leonardo R.-Retificação]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Rogério-Elem</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Comam. Pneumáticos, And. Edson-Usin. CNC, Joel Lima-Tec. Fundição]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,22 +921,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Wellington-Trat. Térmicos, Ivan-Tec. Soldagem, Ludoff-Camam. Hidráulicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-, -, -, Cleidson-Metrologia 2]</t>
+          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Humberto-Comam. Pneumáticos, Ludoff-Camam. Hidráulicos, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, -, Ivan-Tec. Soldagem, -]</t>
+          <t>[Cleidson-Metrologia 2, Ludoff-Camam. Hidráulicos, Aderci-Fresagem, -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/turm/MEC-3A.xlsx
+++ b/data/turm/MEC-3A.xlsx
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo R.-Retificação, -, -, -]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-, And. Edson-Usin. CNC, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Anselmo-M. Motor Endot., -, Ivan-Tec. Soldagem, And. Edson-Usin. CNC]</t>
+          <t>[-, Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Mec. Manut. Equip. Ind., Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Comam. Pneumáticos, Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo R.-Retificação, -, -, -]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-, And. Edson-Usin. CNC, Anselmo-M. Motor Endot., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Anselmo-M. Motor Endot., Gisele-Ens. Dest. não Dest., Ivan-Tec. Soldagem, And. Edson-Usin. CNC]</t>
+          <t>[Leonardo R.-Retificação, -, Ludoff-Camam. Hidráulicos, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, Leonardo R.-Mec. Manut. Equip. Ind., Ludoff-Cont. Lóg. Prog. CLP, Aderci-M. A. Comp; Cad / CAM]</t>
+          <t>[Humberto-Comam. Pneumáticos, Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rogério-Elem</t>
         </is>
       </c>
     </row>
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Aderci-M. A. Comp; Cad / CAM, And. Edson-Usin. CNC, Ludoff-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação, Aderci-M. A. Comp; Cad / CAM, Humberto-Comam. Pneumáticos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+          <t>[Aderci-Fresagem, Anselmo-M. Motor Endot., Ludoff-Cont. Lóg. Prog. CLP, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Leonardo R.-Mec. Manut. Equip. Ind., Ludoff-Cont. Lóg. Prog. CLP, -]</t>
+          <t>[Humberto-Comam. Pneumáticos, Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Térmicos, And. Edson-Usin. CNC, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Cleidson-Metrologia 2, Leonardo R.-Retificação, Aderci-M. A. Comp; Cad / CAM, Humberto-Comam. Pneumáticos]</t>
+          <t>[-, -, Leonardo R.-Mec. Manut. Equip. Ind., -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Ludoff-Camam. Hidráulicos, Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+          <t>[Joel Lima-Tec. Fundição, Ludoff-Camam. Hidráulicos, And. Edson-Usin. CNC, Aderci-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Cleidson-Metrologia 2, Aderci-M. A. Comp; Cad / CAM, Ludoff-Cont. Lóg. Prog. CLP, Leonardo R.-Retificação]</t>
+          <t>[Humberto-Comam. Pneumáticos, Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Cleidson-Metrologia 2]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rogério-Elem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Wellington-Trat. Térmicos, And. Edson-Usin. CNC, Ludoff-Camam. Hidráulicos]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Humberto-Comam. Pneumáticos, Ivan-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+          <t>[Joel Lima-Tec. Fundição, Aderci-Fresagem, Anselmo-M. Motor Endot., Ludoff-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Cleidson-Metrologia 2, Ludoff-Camam. Hidráulicos, Aderci-Fresagem, Leonardo R.-Retificação]</t>
+          <t>[Aderci-M. A. Comp; Cad / CAM, -, -, Leonardo R.-Mec. Manut. Equip. Ind.]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rogério-Elem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,22 +921,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Wellington-Trat. Térmicos, Leonardo R.-Mec. Manut. Equip. Ind., Ludoff-Camam. Hidráulicos]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Mec. Manut. Equip. Ind., Humberto-Comam. Pneumáticos, Ludoff-Camam. Hidráulicos, Anselmo-M. Motor Endot.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Gisele-Ens. Dest. não Dest., Joel Lima-Tec. Fundição, Wellington-Trat. Térmicos]</t>
+          <t>[Joel Lima-Tec. Fundição, Aderci-Fresagem, Ivan-Tec. Soldagem, Wellington-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Cleidson-Metrologia 2, Ludoff-Camam. Hidráulicos, Aderci-Fresagem, -]</t>
+          <t>[Aderci-M. A. Comp; Cad / CAM, Leonardo R.-Retificação, -, -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
